--- a/ESP8266MODWiFi-PinMap.xlsx
+++ b/ESP8266MODWiFi-PinMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dev\workspace\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B95BDE5-3B71-4C9E-9234-011C0155E959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3515FB3A-130D-467F-B944-D5055E625A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12660" xr2:uid="{AF86F572-E4CB-45CC-A166-9EC49D3F8AAC}"/>
+    <workbookView xWindow="2148" yWindow="8340" windowWidth="23040" windowHeight="12660" xr2:uid="{AF86F572-E4CB-45CC-A166-9EC49D3F8AAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
-  <si>
-    <t>GPIO Number</t>
-  </si>
-  <si>
-    <t>NodeMCU Label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Function</t>
   </si>
@@ -52,54 +46,36 @@
     <t>D3</t>
   </si>
   <si>
-    <t>Can be used for input/output</t>
-  </si>
-  <si>
     <t>GPIO1</t>
   </si>
   <si>
     <t>TX</t>
   </si>
   <si>
-    <t>Serial TX (not recommended for general use)</t>
-  </si>
-  <si>
     <t>GPIO2</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>Often connected to built-in LED</t>
-  </si>
-  <si>
     <t>GPIO3</t>
   </si>
   <si>
     <t>RX</t>
   </si>
   <si>
-    <t>Serial RX (not recommended for general use)</t>
-  </si>
-  <si>
     <t>GPIO4</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>General-purpose I/O</t>
-  </si>
-  <si>
     <t>GPIO5</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>Used in your code for LED control</t>
-  </si>
-  <si>
     <t>GPIO12</t>
   </si>
   <si>
@@ -124,16 +100,109 @@
     <t>D8</t>
   </si>
   <si>
-    <t>Must be LOW at boot</t>
-  </si>
-  <si>
     <t>GPIO16</t>
   </si>
   <si>
     <t>D0</t>
   </si>
   <si>
-    <t>Used for deep sleep wake-up</t>
+    <t>Wake-up, No PWM, No Interrupt</t>
+  </si>
+  <si>
+    <t>I2C SCL, PWM, Interrupt</t>
+  </si>
+  <si>
+    <t>I2C SDA, PWM, Interrupt</t>
+  </si>
+  <si>
+    <t>Flash Button, Pull-up</t>
+  </si>
+  <si>
+    <t>TX LED, Weak Pull-up</t>
+  </si>
+  <si>
+    <t>SPI SCK, PWM, Interrupt</t>
+  </si>
+  <si>
+    <t>SPI MISO, PWM, Interrupt</t>
+  </si>
+  <si>
+    <t>SPI MOSI, PWM, Interrupt</t>
+  </si>
+  <si>
+    <t>SPI CS, Needs Pull-down</t>
+  </si>
+  <si>
+    <t>UART RX</t>
+  </si>
+  <si>
+    <t>UART TX</t>
+  </si>
+  <si>
+    <t>Pin Name</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>SD3</t>
+  </si>
+  <si>
+    <t>GPIO10</t>
+  </si>
+  <si>
+    <t>SPI Flash SDIO</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>GPIO9</t>
+  </si>
+  <si>
+    <t>CS0</t>
+  </si>
+  <si>
+    <t>SPI Chip Select</t>
+  </si>
+  <si>
+    <t>SCLK</t>
+  </si>
+  <si>
+    <t>SPI Clock</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>SPI MISO</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>SPI MOSI</t>
+  </si>
+  <si>
+    <t>EN (CH_PD)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Enable (Chip Power Down, Active HIGH)</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>G (GND)</t>
+  </si>
+  <si>
+    <t>Ground</t>
   </si>
 </sst>
 </file>
@@ -499,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDF1553-FCB0-4EA9-9378-C7391703EF7E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,68 +583,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -583,65 +652,164 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
